--- a/output/test-nodes.xlsx
+++ b/output/test-nodes.xlsx
@@ -25,7 +25,7 @@
     <t>ink</t>
   </si>
   <si>
-    <t>indelible visible ink, ink</t>
+    <t>ink, indelible visible ink</t>
   </si>
   <si>
     <t>democracy</t>
@@ -37,7 +37,7 @@
     <t>state</t>
   </si>
   <si>
-    <t>mountainous state</t>
+    <t>small , mountainous state</t>
   </si>
   <si>
     <t>republic</t>
@@ -55,25 +55,25 @@
     <t>elections</t>
   </si>
   <si>
-    <t>elections, recent elections, country 's elections, many elections</t>
+    <t>country 's elections, elections, recent elections, many elections</t>
   </si>
   <si>
     <t>part</t>
   </si>
   <si>
-    <t>part, greatest part</t>
+    <t>greatest part, part</t>
   </si>
   <si>
     <t>drive</t>
   </si>
   <si>
-    <t>drive, petition drive</t>
+    <t>petition drive, drive</t>
   </si>
   <si>
     <t>technology</t>
   </si>
   <si>
-    <t>this new technology, actual technology</t>
+    <t>actual technology, this new technology</t>
   </si>
   <si>
     <t>worries</t>
@@ -109,7 +109,7 @@
     <t>use</t>
   </si>
   <si>
-    <t>improper use, use</t>
+    <t>use, improper use</t>
   </si>
   <si>
     <t>parliamentary</t>
@@ -226,7 +226,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>this type, other common type</t>
+    <t>other common type, this type</t>
   </si>
   <si>
     <t>world</t>

--- a/output/test-nodes.xlsx
+++ b/output/test-nodes.xlsx
@@ -55,7 +55,7 @@
     <t>elections</t>
   </si>
   <si>
-    <t>country 's elections, elections, recent elections, many elections</t>
+    <t>country 's elections, many elections, elections, recent elections</t>
   </si>
   <si>
     <t>part</t>
@@ -73,7 +73,7 @@
     <t>technology</t>
   </si>
   <si>
-    <t>actual technology, this new technology</t>
+    <t>this new technology, actual technology</t>
   </si>
   <si>
     <t>worries</t>
@@ -226,7 +226,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>other common type, this type</t>
+    <t>this type, other common type</t>
   </si>
   <si>
     <t>world</t>

--- a/output/test-nodes.xlsx
+++ b/output/test-nodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
   <si>
     <t>Id</t>
   </si>
@@ -25,7 +25,7 @@
     <t>ink</t>
   </si>
   <si>
-    <t>ink, indelible visible ink</t>
+    <t>indelible visible ink, ink</t>
   </si>
   <si>
     <t>democracy</t>
@@ -55,88 +55,43 @@
     <t>elections</t>
   </si>
   <si>
-    <t>country 's elections, many elections, elections, recent elections</t>
+    <t>country 's elections, elections, many elections, recent elections</t>
   </si>
   <si>
     <t>part</t>
   </si>
   <si>
-    <t>greatest part, part</t>
-  </si>
-  <si>
     <t>drive</t>
   </si>
   <si>
-    <t>petition drive, drive</t>
+    <t>drive, petition drive</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>an island</t>
+  </si>
+  <si>
+    <t>law</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>improper use, use</t>
+  </si>
+  <si>
+    <t>parliamentary</t>
+  </si>
+  <si>
+    <t>upcoming parliamentary</t>
   </si>
   <si>
     <t>technology</t>
   </si>
   <si>
-    <t>this new technology, actual technology</t>
-  </si>
-  <si>
-    <t>worries</t>
-  </si>
-  <si>
-    <t>both worries</t>
-  </si>
-  <si>
-    <t>optimism</t>
-  </si>
-  <si>
-    <t>sectors</t>
-  </si>
-  <si>
-    <t>different sectors</t>
-  </si>
-  <si>
-    <t>population</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>an island</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>inking law, law</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>use, improper use</t>
-  </si>
-  <si>
-    <t>parliamentary</t>
-  </si>
-  <si>
-    <t>upcoming parliamentary</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>many experts</t>
-  </si>
-  <si>
-    <t>backsliding</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>high point</t>
-  </si>
-  <si>
-    <t>effort</t>
-  </si>
-  <si>
-    <t>general effort</t>
+    <t>actual technology</t>
   </si>
   <si>
     <t>presence</t>
@@ -193,40 +148,13 @@
     <t>such article</t>
   </si>
   <si>
-    <t>opposition</t>
-  </si>
-  <si>
     <t>stories</t>
   </si>
   <si>
-    <t>middle</t>
-  </si>
-  <si>
-    <t>road</t>
-  </si>
-  <si>
-    <t>coalition</t>
-  </si>
-  <si>
-    <t>organizations</t>
-  </si>
-  <si>
-    <t>non-governmental organizations</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>an important step</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
-    <t>this type, other common type</t>
+    <t>other common type, this type</t>
   </si>
   <si>
     <t>world</t>
@@ -235,15 +163,6 @@
     <t>afghanistan</t>
   </si>
   <si>
-    <t>leaders</t>
-  </si>
-  <si>
-    <t>islamic leaders</t>
-  </si>
-  <si>
-    <t>populations</t>
-  </si>
-  <si>
     <t>contrary</t>
   </si>
   <si>
@@ -260,27 +179,6 @@
   </si>
   <si>
     <t>thumb</t>
-  </si>
-  <si>
-    <t>panacea</t>
-  </si>
-  <si>
-    <t>ills</t>
-  </si>
-  <si>
-    <t>election ills</t>
-  </si>
-  <si>
-    <t>passage</t>
-  </si>
-  <si>
-    <t>building</t>
-  </si>
-  <si>
-    <t>societies</t>
-  </si>
-  <si>
-    <t>democratic societies</t>
   </si>
 </sst>
 </file>
@@ -612,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -687,52 +585,52 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -743,335 +641,159 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
         <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>76</v>
-      </c>
-      <c r="B49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>80</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>82</v>
-      </c>
-      <c r="B53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>86</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>87</v>
-      </c>
-      <c r="B57" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/output/test-nodes.xlsx
+++ b/output/test-nodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>Id</t>
   </si>
@@ -55,7 +55,7 @@
     <t>elections</t>
   </si>
   <si>
-    <t>country 's elections, elections, many elections, recent elections</t>
+    <t>upcoming parliamentary elections, these elections, recent elections, many elections, elections, country 's elections</t>
   </si>
   <si>
     <t>part</t>
@@ -64,7 +64,7 @@
     <t>drive</t>
   </si>
   <si>
-    <t>drive, petition drive</t>
+    <t>petition drive, drive</t>
   </si>
   <si>
     <t>island</t>
@@ -121,6 +121,15 @@
     <t>voter</t>
   </si>
   <si>
+    <t>significance</t>
+  </si>
+  <si>
+    <t>even greater significance</t>
+  </si>
+  <si>
+    <t>prelude</t>
+  </si>
+  <si>
     <t>election</t>
   </si>
   <si>
@@ -154,7 +163,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>other common type, this type</t>
+    <t>this type, other common type</t>
   </si>
   <si>
     <t>world</t>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>thumb</t>
+  </si>
+  <si>
+    <t>finger</t>
   </si>
 </sst>
 </file>
@@ -510,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -705,12 +717,12 @@
         <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
@@ -761,12 +773,12 @@
         <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>50</v>
@@ -777,12 +789,12 @@
         <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
         <v>53</v>
@@ -793,7 +805,31 @@
         <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/output/test-nodes.xlsx
+++ b/output/test-nodes.xlsx
@@ -25,7 +25,7 @@
     <t>ink</t>
   </si>
   <si>
-    <t>indelible visible ink, ink</t>
+    <t>ink, indelible visible ink</t>
   </si>
   <si>
     <t>democracy</t>
@@ -55,7 +55,7 @@
     <t>elections</t>
   </si>
   <si>
-    <t>upcoming parliamentary elections, these elections, recent elections, many elections, elections, country 's elections</t>
+    <t>country 's elections, recent elections, many elections, these elections, elections, upcoming parliamentary elections</t>
   </si>
   <si>
     <t>part</t>
@@ -64,7 +64,7 @@
     <t>drive</t>
   </si>
   <si>
-    <t>petition drive, drive</t>
+    <t>drive, petition drive</t>
   </si>
   <si>
     <t>island</t>
@@ -79,7 +79,7 @@
     <t>use</t>
   </si>
   <si>
-    <t>improper use, use</t>
+    <t>use, improper use</t>
   </si>
   <si>
     <t>parliamentary</t>

--- a/output/test-nodes.xlsx
+++ b/output/test-nodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Id</t>
   </si>
@@ -25,7 +25,7 @@
     <t>ink</t>
   </si>
   <si>
-    <t>ink, indelible visible ink</t>
+    <t>indelible visible ink, ink</t>
   </si>
   <si>
     <t>democracy</t>
@@ -43,7 +43,7 @@
     <t>republic</t>
   </si>
   <si>
-    <t>former soviet republic</t>
+    <t>kyrgyz republic, former soviet republic</t>
   </si>
   <si>
     <t>readers</t>
@@ -55,7 +55,7 @@
     <t>elections</t>
   </si>
   <si>
-    <t>country 's elections, recent elections, many elections, these elections, elections, upcoming parliamentary elections</t>
+    <t>many elections, recent elections, these elections, country 's elections, elections, upcoming parliamentary elections</t>
   </si>
   <si>
     <t>part</t>
@@ -88,12 +88,21 @@
     <t>upcoming parliamentary</t>
   </si>
   <si>
+    <t>experts</t>
+  </si>
+  <si>
+    <t>many experts</t>
+  </si>
+  <si>
     <t>technology</t>
   </si>
   <si>
     <t>actual technology</t>
   </si>
   <si>
+    <t>person</t>
+  </si>
+  <si>
     <t>presence</t>
   </si>
   <si>
@@ -103,6 +112,12 @@
     <t>ultraviolet light</t>
   </si>
   <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>election official</t>
+  </si>
+  <si>
     <t>fingers</t>
   </si>
   <si>
@@ -115,12 +130,18 @@
     <t>uv lamp</t>
   </si>
   <si>
+    <t>voter</t>
+  </si>
+  <si>
+    <t>voter, every voter</t>
+  </si>
+  <si>
+    <t>his/her</t>
+  </si>
+  <si>
     <t>uv</t>
   </si>
   <si>
-    <t>voter</t>
-  </si>
-  <si>
     <t>significance</t>
   </si>
   <si>
@@ -158,6 +179,12 @@
   </si>
   <si>
     <t>stories</t>
+  </si>
+  <si>
+    <t>problems</t>
+  </si>
+  <si>
+    <t>health problems, additional problems</t>
   </si>
   <si>
     <t>type</t>
@@ -522,7 +549,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -653,12 +680,12 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
@@ -669,20 +696,20 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -693,143 +720,183 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/output/test-nodes.xlsx
+++ b/output/test-nodes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="203">
   <si>
     <t>Id</t>
   </si>
@@ -22,202 +22,607 @@
     <t>Label</t>
   </si>
   <si>
-    <t>ink</t>
-  </si>
-  <si>
-    <t>indelible visible ink, ink</t>
-  </si>
-  <si>
-    <t>democracy</t>
-  </si>
-  <si>
-    <t>asia</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>small , mountainous state</t>
-  </si>
-  <si>
-    <t>republic</t>
-  </si>
-  <si>
-    <t>kyrgyz republic, former soviet republic</t>
-  </si>
-  <si>
-    <t>readers</t>
-  </si>
-  <si>
-    <t>ultraviolet readers</t>
-  </si>
-  <si>
-    <t>elections</t>
-  </si>
-  <si>
-    <t>many elections, recent elections, these elections, country 's elections, elections, upcoming parliamentary elections</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>drive</t>
-  </si>
-  <si>
-    <t>drive, petition drive</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>an island</t>
-  </si>
-  <si>
-    <t>law</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>use, improper use</t>
-  </si>
-  <si>
-    <t>parliamentary</t>
-  </si>
-  <si>
-    <t>upcoming parliamentary</t>
-  </si>
-  <si>
-    <t>experts</t>
-  </si>
-  <si>
-    <t>many experts</t>
-  </si>
-  <si>
-    <t>technology</t>
-  </si>
-  <si>
-    <t>actual technology</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>presence</t>
-  </si>
-  <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>ultraviolet light</t>
-  </si>
-  <si>
-    <t>official</t>
-  </si>
-  <si>
-    <t>election official</t>
-  </si>
-  <si>
-    <t>fingers</t>
-  </si>
-  <si>
-    <t>voter 's fingers</t>
-  </si>
-  <si>
-    <t>lamp</t>
-  </si>
-  <si>
-    <t>uv lamp</t>
-  </si>
-  <si>
-    <t>voter</t>
-  </si>
-  <si>
-    <t>voter, every voter</t>
-  </si>
-  <si>
-    <t>his/her</t>
-  </si>
-  <si>
-    <t>uv</t>
-  </si>
-  <si>
-    <t>significance</t>
-  </si>
-  <si>
-    <t>even greater significance</t>
-  </si>
-  <si>
-    <t>prelude</t>
-  </si>
-  <si>
-    <t>election</t>
-  </si>
-  <si>
-    <t>presidential election</t>
-  </si>
-  <si>
-    <t>autumn</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>republics</t>
-  </si>
-  <si>
-    <t>other former soviet republics</t>
-  </si>
-  <si>
-    <t>articles</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>such article</t>
+    <t>games</t>
+  </si>
+  <si>
+    <t>these games, some video games, online gaming online role playing games, games, mmorpg games</t>
+  </si>
+  <si>
+    <t>time-consuming</t>
+  </si>
+  <si>
+    <t>flights</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>face reality, reality</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>some people, these people, people, many people</t>
+  </si>
+  <si>
+    <t>fantasy</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>fantasy world, video game world, real world, world, gaming world</t>
+  </si>
+  <si>
+    <t>warcraft</t>
+  </si>
+  <si>
+    <t>warcraft, work playing warcraft</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>addiction</t>
+  </si>
+  <si>
+    <t>an addiction</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>warcraft game, first game, game, this game, pc game, massively multiplayer online role playing game</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>so good</t>
+  </si>
+  <si>
+    <t>tone</t>
+  </si>
+  <si>
+    <t>more worrying tone</t>
+  </si>
+  <si>
+    <t>motto</t>
+  </si>
+  <si>
+    <t>mmorpg</t>
+  </si>
+  <si>
+    <t>any mmorpg</t>
+  </si>
+  <si>
+    <t>pong</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>too much time, time, much less time</t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>front</t>
+  </si>
+  <si>
+    <t>television</t>
   </si>
   <si>
     <t>stories</t>
   </si>
   <si>
+    <t>heart-rending stories, stories</t>
+  </si>
+  <si>
+    <t>gamers</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>next day, day</t>
+  </si>
+  <si>
+    <t>frequent</t>
+  </si>
+  <si>
+    <t>more frequent</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>multiplayer online role, online role</t>
+  </si>
+  <si>
+    <t>thousands</t>
+  </si>
+  <si>
+    <t>allow thousands</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>ultima</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>adventure</t>
+  </si>
+  <si>
+    <t>adventure, more adventure</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>almost infinite</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>no reason</t>
+  </si>
+  <si>
+    <t>everquest</t>
+  </si>
+  <si>
+    <t>everquest, week playing everquest</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>gaming</t>
+  </si>
+  <si>
+    <t>online gaming, gaming</t>
+  </si>
+  <si>
+    <t>lots</t>
+  </si>
+  <si>
+    <t>eq</t>
+  </si>
+  <si>
+    <t>tv</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>life, normal life</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>fun, more fun</t>
+  </si>
+  <si>
+    <t>obsession</t>
+  </si>
+  <si>
+    <t>such obsession</t>
+  </si>
+  <si>
+    <t>rare</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>growth, huge growth</t>
+  </si>
+  <si>
+    <t>passion</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>days</t>
+  </si>
+  <si>
+    <t>sale</t>
+  </si>
+  <si>
+    <t>thoughts</t>
+  </si>
+  <si>
+    <t>families</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>chronicle</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>another body</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>comedic term, half term</t>
+  </si>
+  <si>
+    <t>women</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>sad truth</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>hours today</t>
+  </si>
+  <si>
+    <t>quests</t>
+  </si>
+  <si>
+    <t>important quests</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>online, mate play online, ultima online</t>
+  </si>
+  <si>
+    <t>mainstream</t>
+  </si>
+  <si>
+    <t>ever more mainstream</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>no hiding place</t>
+  </si>
+  <si>
     <t>problems</t>
   </si>
   <si>
-    <t>health problems, additional problems</t>
+    <t>social problems</t>
+  </si>
+  <si>
+    <t>unusual</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>hours, early hours</t>
+  </si>
+  <si>
+    <t>stretch</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>week 's holiday</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>ever [ crack ]</t>
+  </si>
+  <si>
+    <t>shifts</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>key sign</t>
+  </si>
+  <si>
+    <t>talk</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>drag</t>
+  </si>
+  <si>
+    <t>main drag</t>
+  </si>
+  <si>
+    <t>rpgs</t>
+  </si>
+  <si>
+    <t>rpgs, online rpgs</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>worries</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>new magic staff</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>achievement</t>
+  </si>
+  <si>
+    <t>achievement, illusory achievement</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>fake one</t>
+  </si>
+  <si>
+    <t>encouragement</t>
+  </si>
+  <si>
+    <t>mmorpgs</t>
+  </si>
+  <si>
+    <t>these mmorpgs, mmorpgs</t>
+  </si>
+  <si>
+    <t>enough</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>simply human need</t>
+  </si>
+  <si>
+    <t>progress</t>
+  </si>
+  <si>
+    <t>easily measurable progress, this progress</t>
+  </si>
+  <si>
+    <t>achievements</t>
+  </si>
+  <si>
+    <t>adiction</t>
+  </si>
+  <si>
+    <t>an adiction</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>dysfunctional sense</t>
+  </si>
+  <si>
+    <t>player</t>
+  </si>
+  <si>
+    <t>an obsessive eq player</t>
+  </si>
+  <si>
+    <t>danger</t>
+  </si>
+  <si>
+    <t>unique danger</t>
+  </si>
+  <si>
+    <t>nature</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>championship manager</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>years, some years</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>more real</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plague</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>addictiveness</t>
+  </si>
+  <si>
+    <t>slower</t>
+  </si>
+  <si>
+    <t>exponentially slower</t>
+  </si>
+  <si>
+    <t>weekends</t>
+  </si>
+  <si>
+    <t>entire weekends</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>addictive</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>morning</t>
+  </si>
+  <si>
+    <t>drugs</t>
+  </si>
+  <si>
+    <t>recreational drugs</t>
+  </si>
+  <si>
+    <t>basis</t>
+  </si>
+  <si>
+    <t>an occasional basis</t>
+  </si>
+  <si>
+    <t>lives</t>
+  </si>
+  <si>
+    <t>succesfull lives</t>
+  </si>
+  <si>
+    <t>alot</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>league</t>
+  </si>
+  <si>
+    <t>adrenaline</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>real life situation</t>
+  </si>
+  <si>
+    <t>players</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>these types</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>huge social aspect</t>
+  </si>
+  <si>
+    <t>lack</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>an hour</t>
+  </si>
+  <si>
+    <t>stress</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
   <si>
     <t>type</t>
   </si>
   <si>
-    <t>this type, other common type</t>
-  </si>
-  <si>
-    <t>world</t>
-  </si>
-  <si>
-    <t>afghanistan</t>
-  </si>
-  <si>
-    <t>contrary</t>
-  </si>
-  <si>
-    <t>not contrary</t>
-  </si>
-  <si>
-    <t>effective</t>
-  </si>
-  <si>
-    <t>very effective</t>
-  </si>
-  <si>
-    <t>cuticle</t>
-  </si>
-  <si>
-    <t>thumb</t>
-  </si>
-  <si>
-    <t>finger</t>
+    <t>these type</t>
+  </si>
+  <si>
+    <t>generation</t>
+  </si>
+  <si>
+    <t>younger generation</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>screens</t>
+  </si>
+  <si>
+    <t>computer screens</t>
+  </si>
+  <si>
+    <t>pathetic</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -549,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,20 +1013,20 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -632,20 +1037,20 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -672,28 +1077,28 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
@@ -704,199 +1109,951 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" t="s">
         <v>67</v>
       </c>
-      <c r="B43" t="s">
-        <v>67</v>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>87</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>99</v>
+      </c>
+      <c r="B67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>103</v>
+      </c>
+      <c r="B69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>111</v>
+      </c>
+      <c r="B74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>115</v>
+      </c>
+      <c r="B77" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>120</v>
+      </c>
+      <c r="B80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>124</v>
+      </c>
+      <c r="B83" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>125</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>127</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>132</v>
+      </c>
+      <c r="B88" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>133</v>
+      </c>
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>138</v>
+      </c>
+      <c r="B92" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>140</v>
+      </c>
+      <c r="B93" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>141</v>
+      </c>
+      <c r="B94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>144</v>
+      </c>
+      <c r="B96" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>146</v>
+      </c>
+      <c r="B97" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>149</v>
+      </c>
+      <c r="B99" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>151</v>
+      </c>
+      <c r="B100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>153</v>
+      </c>
+      <c r="B101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>156</v>
+      </c>
+      <c r="B103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>157</v>
+      </c>
+      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>160</v>
+      </c>
+      <c r="B107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>161</v>
+      </c>
+      <c r="B108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>162</v>
+      </c>
+      <c r="B109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>164</v>
+      </c>
+      <c r="B110" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>167</v>
+      </c>
+      <c r="B112" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>168</v>
+      </c>
+      <c r="B113" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>171</v>
+      </c>
+      <c r="B116" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>173</v>
+      </c>
+      <c r="B117" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="B118" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>177</v>
+      </c>
+      <c r="B119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>178</v>
+      </c>
+      <c r="B120" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>179</v>
+      </c>
+      <c r="B121" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>180</v>
+      </c>
+      <c r="B122" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>181</v>
+      </c>
+      <c r="B123" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>183</v>
+      </c>
+      <c r="B124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>184</v>
+      </c>
+      <c r="B125" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>188</v>
+      </c>
+      <c r="B127" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>189</v>
+      </c>
+      <c r="B128" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>192</v>
+      </c>
+      <c r="B130" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>193</v>
+      </c>
+      <c r="B131" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>194</v>
+      </c>
+      <c r="B132" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>196</v>
+      </c>
+      <c r="B133" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>198</v>
+      </c>
+      <c r="B134" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>199</v>
+      </c>
+      <c r="B135" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>201</v>
+      </c>
+      <c r="B136" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>202</v>
+      </c>
+      <c r="B137" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
